--- a/data/Kaggle_2_comparison.xlsx
+++ b/data/Kaggle_2_comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="45160" yWindow="-7440" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="45160" yWindow="-7420" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="497">
   <si>
     <t>892,0</t>
   </si>
@@ -1486,16 +1486,56 @@
   </si>
   <si>
     <t>1309,1</t>
+  </si>
+  <si>
+    <t>924,0</t>
+  </si>
+  <si>
+    <t>941,0</t>
+  </si>
+  <si>
+    <t>956,1</t>
+  </si>
+  <si>
+    <t>964,0</t>
+  </si>
+  <si>
+    <t>1088,1</t>
+  </si>
+  <si>
+    <t>1097,1</t>
+  </si>
+  <si>
+    <t>1251,0</t>
+  </si>
+  <si>
+    <t>1304,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1518,13 +1558,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1854,15 +1906,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C420"/>
+  <dimension ref="A2:E420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C421" sqref="C421"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="D419" sqref="D2:D419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1873,8 +1925,15 @@
         <f>IF(A2=B2,0,1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>IF(A2=D2,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>418</v>
       </c>
@@ -1885,8 +1944,15 @@
         <f t="shared" ref="C3:C66" si="0">IF(A3=B3,0,1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">IF(A3=D3,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1897,8 +1963,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1909,8 +1982,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>419</v>
       </c>
@@ -1921,8 +2001,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>420</v>
       </c>
@@ -1933,8 +2020,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>421</v>
       </c>
@@ -1945,8 +2039,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1957,8 +2058,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1969,8 +2077,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1981,8 +2096,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1993,8 +2115,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2005,8 +2134,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2017,8 +2153,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2029,8 +2172,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2041,8 +2191,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2053,8 +2210,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2065,8 +2229,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2077,8 +2248,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>422</v>
       </c>
@@ -2089,8 +2267,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>423</v>
       </c>
@@ -2101,8 +2286,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>424</v>
       </c>
@@ -2113,8 +2305,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>425</v>
       </c>
@@ -2125,8 +2324,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2137,8 +2343,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>426</v>
       </c>
@@ -2149,8 +2362,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2161,8 +2381,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2173,8 +2400,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2185,8 +2419,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2197,8 +2438,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>427</v>
       </c>
@@ -2209,8 +2457,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>428</v>
       </c>
@@ -2221,8 +2476,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2233,8 +2495,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2245,8 +2514,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2257,8 +2533,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>489</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>429</v>
       </c>
@@ -2269,8 +2552,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>430</v>
       </c>
@@ -2281,8 +2571,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2293,8 +2590,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>431</v>
       </c>
@@ -2305,8 +2609,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>432</v>
       </c>
@@ -2317,8 +2628,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>432</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2329,8 +2647,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2341,8 +2666,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2353,8 +2685,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2365,8 +2704,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2377,8 +2723,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2389,8 +2742,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2401,8 +2761,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2413,8 +2780,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2425,8 +2799,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2437,8 +2818,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2449,8 +2837,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2461,8 +2856,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>490</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2473,8 +2875,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2485,8 +2894,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2497,8 +2913,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2509,8 +2932,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>433</v>
       </c>
@@ -2521,8 +2951,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2533,8 +2970,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2545,8 +2989,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2557,8 +3008,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2569,8 +3027,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2581,8 +3046,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2593,8 +3065,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2605,8 +3084,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2617,8 +3103,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2629,8 +3122,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2641,8 +3141,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="s">
+        <v>491</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2650,11 +3157,18 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="1">IF(A67=B67,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <f t="shared" ref="C67:C130" si="2">IF(A67=B67,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="3">IF(A67=D67,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2662,11 +3176,18 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2674,11 +3195,18 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>434</v>
       </c>
@@ -2686,11 +3214,18 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2698,11 +3233,18 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2710,11 +3252,18 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2722,11 +3271,18 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2734,11 +3290,18 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>492</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>435</v>
       </c>
@@ -2746,11 +3309,18 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2758,11 +3328,18 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2770,11 +3347,18 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2782,11 +3366,18 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>76</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2794,11 +3385,18 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2806,11 +3404,18 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2818,11 +3423,18 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>436</v>
       </c>
@@ -2830,11 +3442,18 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>437</v>
       </c>
@@ -2842,11 +3461,18 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2854,11 +3480,18 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2866,11 +3499,18 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2878,11 +3518,18 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>438</v>
       </c>
@@ -2890,11 +3537,18 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>439</v>
       </c>
@@ -2902,11 +3556,18 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>86</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2914,11 +3575,18 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>87</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2926,11 +3594,18 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>440</v>
       </c>
@@ -2938,11 +3613,18 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>89</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>441</v>
       </c>
@@ -2950,11 +3632,18 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>441</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2962,11 +3651,18 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2974,11 +3670,18 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2986,11 +3689,18 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>442</v>
       </c>
@@ -2998,11 +3708,18 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -3010,11 +3727,18 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -3022,11 +3746,18 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3034,11 +3765,18 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>97</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>443</v>
       </c>
@@ -3046,11 +3784,18 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>443</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -3058,11 +3803,18 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -3070,11 +3822,18 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>100</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -3082,11 +3841,18 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -3094,11 +3860,18 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -3106,11 +3879,18 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>103</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -3118,11 +3898,18 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>104</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -3130,11 +3917,18 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>105</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -3142,11 +3936,18 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>106</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -3154,11 +3955,18 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3166,11 +3974,18 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -3178,11 +3993,18 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -3190,11 +4012,18 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>110</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3202,11 +4031,18 @@
         <v>111</v>
       </c>
       <c r="C113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>111</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -3214,11 +4050,18 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>112</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -3226,11 +4069,18 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>113</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3238,11 +4088,18 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>114</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>444</v>
       </c>
@@ -3250,11 +4107,18 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>115</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -3262,11 +4126,18 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>116</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -3274,11 +4145,18 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>117</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -3286,11 +4164,18 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>118</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -3298,11 +4183,18 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>119</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -3310,11 +4202,18 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>120</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -3322,11 +4221,18 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>121</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -3334,11 +4240,18 @@
         <v>122</v>
       </c>
       <c r="C124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>122</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -3346,11 +4259,18 @@
         <v>123</v>
       </c>
       <c r="C125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>123</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -3358,11 +4278,18 @@
         <v>124</v>
       </c>
       <c r="C126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>124</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>445</v>
       </c>
@@ -3370,11 +4297,18 @@
         <v>125</v>
       </c>
       <c r="C127">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>125</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -3382,11 +4316,18 @@
         <v>126</v>
       </c>
       <c r="C128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>126</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -3394,11 +4335,18 @@
         <v>127</v>
       </c>
       <c r="C129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>127</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -3406,11 +4354,18 @@
         <v>128</v>
       </c>
       <c r="C130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>128</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -3418,11 +4373,18 @@
         <v>129</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C194" si="2">IF(A131=B131,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <f t="shared" ref="C131:C194" si="4">IF(A131=B131,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>129</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="5">IF(A131=D131,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -3430,11 +4392,18 @@
         <v>130</v>
       </c>
       <c r="C132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>130</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -3442,11 +4411,18 @@
         <v>131</v>
       </c>
       <c r="C133">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>131</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>446</v>
       </c>
@@ -3454,11 +4430,18 @@
         <v>132</v>
       </c>
       <c r="C134">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>132</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -3466,11 +4449,18 @@
         <v>133</v>
       </c>
       <c r="C135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>133</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -3478,11 +4468,18 @@
         <v>134</v>
       </c>
       <c r="C136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>134</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -3490,11 +4487,18 @@
         <v>135</v>
       </c>
       <c r="C137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>135</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -3502,11 +4506,18 @@
         <v>136</v>
       </c>
       <c r="C138">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>136</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -3514,11 +4525,18 @@
         <v>137</v>
       </c>
       <c r="C139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>137</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>447</v>
       </c>
@@ -3526,11 +4544,18 @@
         <v>138</v>
       </c>
       <c r="C140">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>447</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -3538,11 +4563,18 @@
         <v>139</v>
       </c>
       <c r="C141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>139</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>448</v>
       </c>
@@ -3550,11 +4582,18 @@
         <v>140</v>
       </c>
       <c r="C142">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>140</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -3562,11 +4601,18 @@
         <v>141</v>
       </c>
       <c r="C143">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>141</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -3574,11 +4620,18 @@
         <v>142</v>
       </c>
       <c r="C144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>142</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -3586,11 +4639,18 @@
         <v>143</v>
       </c>
       <c r="C145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>143</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -3598,11 +4658,18 @@
         <v>144</v>
       </c>
       <c r="C146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>144</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -3610,11 +4677,18 @@
         <v>145</v>
       </c>
       <c r="C147">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>145</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -3622,11 +4696,18 @@
         <v>146</v>
       </c>
       <c r="C148">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>146</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -3634,11 +4715,18 @@
         <v>147</v>
       </c>
       <c r="C149">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>147</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -3646,11 +4734,18 @@
         <v>148</v>
       </c>
       <c r="C150">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D150" t="s">
+        <v>148</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -3658,11 +4753,18 @@
         <v>149</v>
       </c>
       <c r="C151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>149</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -3670,11 +4772,18 @@
         <v>150</v>
       </c>
       <c r="C152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>150</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -3682,11 +4791,18 @@
         <v>151</v>
       </c>
       <c r="C153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D153" t="s">
+        <v>151</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -3694,11 +4810,18 @@
         <v>152</v>
       </c>
       <c r="C154">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>152</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>449</v>
       </c>
@@ -3706,11 +4829,18 @@
         <v>153</v>
       </c>
       <c r="C155">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>449</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -3718,11 +4848,18 @@
         <v>154</v>
       </c>
       <c r="C156">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>154</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -3730,11 +4867,18 @@
         <v>155</v>
       </c>
       <c r="C157">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>155</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -3742,11 +4886,18 @@
         <v>156</v>
       </c>
       <c r="C158">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>156</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>450</v>
       </c>
@@ -3754,11 +4905,18 @@
         <v>157</v>
       </c>
       <c r="C159">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>450</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -3766,11 +4924,18 @@
         <v>158</v>
       </c>
       <c r="C160">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>158</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>451</v>
       </c>
@@ -3778,11 +4943,18 @@
         <v>159</v>
       </c>
       <c r="C161">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>451</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -3790,11 +4962,18 @@
         <v>160</v>
       </c>
       <c r="C162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>160</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>452</v>
       </c>
@@ -3802,11 +4981,18 @@
         <v>161</v>
       </c>
       <c r="C163">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>161</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -3814,11 +5000,18 @@
         <v>162</v>
       </c>
       <c r="C164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>162</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -3826,11 +5019,18 @@
         <v>163</v>
       </c>
       <c r="C165">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>163</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -3838,11 +5038,18 @@
         <v>164</v>
       </c>
       <c r="C166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>164</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>453</v>
       </c>
@@ -3850,11 +5057,18 @@
         <v>165</v>
       </c>
       <c r="C167">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>453</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>454</v>
       </c>
@@ -3862,11 +5076,18 @@
         <v>166</v>
       </c>
       <c r="C168">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>166</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -3874,11 +5095,18 @@
         <v>167</v>
       </c>
       <c r="C169">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D169" t="s">
+        <v>167</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -3886,11 +5114,18 @@
         <v>168</v>
       </c>
       <c r="C170">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
+        <v>168</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>455</v>
       </c>
@@ -3898,11 +5133,18 @@
         <v>169</v>
       </c>
       <c r="C171">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>455</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -3910,11 +5152,18 @@
         <v>170</v>
       </c>
       <c r="C172">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D172" t="s">
+        <v>170</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -3922,11 +5171,18 @@
         <v>171</v>
       </c>
       <c r="C173">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>171</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -3934,11 +5190,18 @@
         <v>172</v>
       </c>
       <c r="C174">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D174" t="s">
+        <v>172</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -3946,11 +5209,18 @@
         <v>173</v>
       </c>
       <c r="C175">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
+        <v>173</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -3958,11 +5228,18 @@
         <v>174</v>
       </c>
       <c r="C176">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>174</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -3970,11 +5247,18 @@
         <v>175</v>
       </c>
       <c r="C177">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D177" t="s">
+        <v>175</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -3982,11 +5266,18 @@
         <v>176</v>
       </c>
       <c r="C178">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D178" t="s">
+        <v>176</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>456</v>
       </c>
@@ -3994,11 +5285,18 @@
         <v>177</v>
       </c>
       <c r="C179">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>177</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -4006,11 +5304,18 @@
         <v>178</v>
       </c>
       <c r="C180">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D180" t="s">
+        <v>178</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -4018,11 +5323,18 @@
         <v>179</v>
       </c>
       <c r="C181">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D181" t="s">
+        <v>179</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -4030,11 +5342,18 @@
         <v>180</v>
       </c>
       <c r="C182">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
+        <v>180</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -4042,11 +5361,18 @@
         <v>181</v>
       </c>
       <c r="C183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
+        <v>181</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -4054,11 +5380,18 @@
         <v>182</v>
       </c>
       <c r="C184">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
+        <v>182</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -4066,11 +5399,18 @@
         <v>183</v>
       </c>
       <c r="C185">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D185" t="s">
+        <v>183</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -4078,11 +5418,18 @@
         <v>184</v>
       </c>
       <c r="C186">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D186" t="s">
+        <v>184</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -4090,11 +5437,18 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D187" t="s">
+        <v>185</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -4102,11 +5456,18 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D188" t="s">
+        <v>186</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -4114,11 +5475,18 @@
         <v>187</v>
       </c>
       <c r="C189">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D189" t="s">
+        <v>187</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>457</v>
       </c>
@@ -4126,11 +5494,18 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>188</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -4138,11 +5513,18 @@
         <v>189</v>
       </c>
       <c r="C191">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D191" t="s">
+        <v>189</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -4150,11 +5532,18 @@
         <v>190</v>
       </c>
       <c r="C192">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D192" t="s">
+        <v>190</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -4162,11 +5551,18 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D193" t="s">
+        <v>191</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>458</v>
       </c>
@@ -4174,11 +5570,18 @@
         <v>192</v>
       </c>
       <c r="C194">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>192</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -4186,11 +5589,18 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:C258" si="3">IF(A195=B195,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <f t="shared" ref="C195:C258" si="6">IF(A195=B195,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D195" t="s">
+        <v>193</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E258" si="7">IF(A195=D195,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>459</v>
       </c>
@@ -4198,11 +5608,18 @@
         <v>194</v>
       </c>
       <c r="C196">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>194</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -4210,11 +5627,18 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D197" t="s">
+        <v>195</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -4222,11 +5646,18 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D198" t="s">
+        <v>493</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -4234,11 +5665,18 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D199" t="s">
+        <v>197</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -4246,11 +5684,18 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D200" t="s">
+        <v>198</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>460</v>
       </c>
@@ -4258,11 +5703,18 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>199</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -4270,11 +5722,18 @@
         <v>200</v>
       </c>
       <c r="C202">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D202" t="s">
+        <v>200</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -4282,11 +5741,18 @@
         <v>201</v>
       </c>
       <c r="C203">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D203" t="s">
+        <v>201</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -4294,11 +5760,18 @@
         <v>202</v>
       </c>
       <c r="C204">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D204" t="s">
+        <v>202</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -4306,11 +5779,18 @@
         <v>203</v>
       </c>
       <c r="C205">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
+        <v>203</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -4318,11 +5798,18 @@
         <v>204</v>
       </c>
       <c r="C206">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D206" t="s">
+        <v>204</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -4330,11 +5817,18 @@
         <v>205</v>
       </c>
       <c r="C207">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D207" t="s">
+        <v>494</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>461</v>
       </c>
@@ -4342,11 +5836,18 @@
         <v>206</v>
       </c>
       <c r="C208">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>206</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -4354,11 +5855,18 @@
         <v>207</v>
       </c>
       <c r="C209">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D209" t="s">
+        <v>207</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -4366,11 +5874,18 @@
         <v>208</v>
       </c>
       <c r="C210">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D210" t="s">
+        <v>208</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -4378,11 +5893,18 @@
         <v>209</v>
       </c>
       <c r="C211">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>209</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -4390,11 +5912,18 @@
         <v>210</v>
       </c>
       <c r="C212">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D212" t="s">
+        <v>210</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -4402,11 +5931,18 @@
         <v>211</v>
       </c>
       <c r="C213">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D213" t="s">
+        <v>211</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -4414,11 +5950,18 @@
         <v>212</v>
       </c>
       <c r="C214">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>212</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -4426,11 +5969,18 @@
         <v>213</v>
       </c>
       <c r="C215">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D215" t="s">
+        <v>213</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>462</v>
       </c>
@@ -4438,11 +5988,18 @@
         <v>214</v>
       </c>
       <c r="C216">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>462</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -4450,11 +6007,18 @@
         <v>215</v>
       </c>
       <c r="C217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
+        <v>215</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -4462,11 +6026,18 @@
         <v>216</v>
       </c>
       <c r="C218">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D218" t="s">
+        <v>216</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -4474,11 +6045,18 @@
         <v>217</v>
       </c>
       <c r="C219">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D219" t="s">
+        <v>217</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -4486,11 +6064,18 @@
         <v>218</v>
       </c>
       <c r="C220">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D220" t="s">
+        <v>218</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -4498,11 +6083,18 @@
         <v>219</v>
       </c>
       <c r="C221">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D221" t="s">
+        <v>219</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -4510,11 +6102,18 @@
         <v>220</v>
       </c>
       <c r="C222">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D222" t="s">
+        <v>220</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -4522,11 +6121,18 @@
         <v>221</v>
       </c>
       <c r="C223">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D223" t="s">
+        <v>221</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -4534,11 +6140,18 @@
         <v>222</v>
       </c>
       <c r="C224">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D224" t="s">
+        <v>222</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -4546,11 +6159,18 @@
         <v>223</v>
       </c>
       <c r="C225">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D225" t="s">
+        <v>223</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -4558,11 +6178,18 @@
         <v>224</v>
       </c>
       <c r="C226">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D226" t="s">
+        <v>224</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -4570,11 +6197,18 @@
         <v>225</v>
       </c>
       <c r="C227">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D227" t="s">
+        <v>225</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -4582,11 +6216,18 @@
         <v>226</v>
       </c>
       <c r="C228">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D228" t="s">
+        <v>226</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -4594,11 +6235,18 @@
         <v>227</v>
       </c>
       <c r="C229">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D229" t="s">
+        <v>227</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -4606,11 +6254,18 @@
         <v>228</v>
       </c>
       <c r="C230">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D230" t="s">
+        <v>228</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -4618,11 +6273,18 @@
         <v>229</v>
       </c>
       <c r="C231">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D231" t="s">
+        <v>229</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -4630,11 +6292,18 @@
         <v>230</v>
       </c>
       <c r="C232">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D232" t="s">
+        <v>230</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -4642,11 +6311,18 @@
         <v>231</v>
       </c>
       <c r="C233">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D233" t="s">
+        <v>231</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -4654,11 +6330,18 @@
         <v>232</v>
       </c>
       <c r="C234">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D234" t="s">
+        <v>232</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -4666,11 +6349,18 @@
         <v>233</v>
       </c>
       <c r="C235">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D235" t="s">
+        <v>233</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>463</v>
       </c>
@@ -4678,11 +6368,18 @@
         <v>234</v>
       </c>
       <c r="C236">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>234</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -4690,11 +6387,18 @@
         <v>235</v>
       </c>
       <c r="C237">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D237" t="s">
+        <v>235</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -4702,11 +6406,18 @@
         <v>236</v>
       </c>
       <c r="C238">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D238" t="s">
+        <v>236</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -4714,11 +6425,18 @@
         <v>237</v>
       </c>
       <c r="C239">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D239" t="s">
+        <v>237</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -4726,11 +6444,18 @@
         <v>238</v>
       </c>
       <c r="C240">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D240" t="s">
+        <v>238</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -4738,11 +6463,18 @@
         <v>239</v>
       </c>
       <c r="C241">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D241" t="s">
+        <v>239</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -4750,11 +6482,18 @@
         <v>240</v>
       </c>
       <c r="C242">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D242" t="s">
+        <v>240</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -4762,11 +6501,18 @@
         <v>241</v>
       </c>
       <c r="C243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D243" t="s">
+        <v>241</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -4774,11 +6520,18 @@
         <v>242</v>
       </c>
       <c r="C244">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D244" t="s">
+        <v>242</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -4786,11 +6539,18 @@
         <v>243</v>
       </c>
       <c r="C245">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D245" t="s">
+        <v>243</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -4798,11 +6558,18 @@
         <v>244</v>
       </c>
       <c r="C246">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D246" t="s">
+        <v>244</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>464</v>
       </c>
@@ -4810,11 +6577,18 @@
         <v>245</v>
       </c>
       <c r="C247">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>245</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -4822,11 +6596,18 @@
         <v>246</v>
       </c>
       <c r="C248">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D248" t="s">
+        <v>246</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -4834,11 +6615,18 @@
         <v>247</v>
       </c>
       <c r="C249">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D249" t="s">
+        <v>247</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -4846,11 +6634,18 @@
         <v>248</v>
       </c>
       <c r="C250">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D250" t="s">
+        <v>248</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -4858,11 +6653,18 @@
         <v>249</v>
       </c>
       <c r="C251">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D251" t="s">
+        <v>249</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -4870,11 +6672,18 @@
         <v>250</v>
       </c>
       <c r="C252">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D252" t="s">
+        <v>250</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -4882,11 +6691,18 @@
         <v>251</v>
       </c>
       <c r="C253">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D253" t="s">
+        <v>251</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -4894,11 +6710,18 @@
         <v>252</v>
       </c>
       <c r="C254">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D254" t="s">
+        <v>252</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -4906,11 +6729,18 @@
         <v>253</v>
       </c>
       <c r="C255">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D255" t="s">
+        <v>253</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -4918,11 +6748,18 @@
         <v>254</v>
       </c>
       <c r="C256">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D256" t="s">
+        <v>254</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -4930,11 +6767,18 @@
         <v>255</v>
       </c>
       <c r="C257">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D257" t="s">
+        <v>255</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -4942,11 +6786,18 @@
         <v>256</v>
       </c>
       <c r="C258">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D258" t="s">
+        <v>256</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -4954,11 +6805,18 @@
         <v>257</v>
       </c>
       <c r="C259">
-        <f t="shared" ref="C259:C322" si="4">IF(A259=B259,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <f t="shared" ref="C259:C322" si="8">IF(A259=B259,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D259" t="s">
+        <v>257</v>
+      </c>
+      <c r="E259">
+        <f t="shared" ref="E259:E322" si="9">IF(A259=D259,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -4966,11 +6824,18 @@
         <v>258</v>
       </c>
       <c r="C260">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D260" t="s">
+        <v>258</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -4978,11 +6843,18 @@
         <v>259</v>
       </c>
       <c r="C261">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D261" t="s">
+        <v>259</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -4990,11 +6862,18 @@
         <v>260</v>
       </c>
       <c r="C262">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D262" t="s">
+        <v>260</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -5002,11 +6881,18 @@
         <v>261</v>
       </c>
       <c r="C263">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D263" t="s">
+        <v>261</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -5014,11 +6900,18 @@
         <v>262</v>
       </c>
       <c r="C264">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D264" t="s">
+        <v>262</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -5026,11 +6919,18 @@
         <v>263</v>
       </c>
       <c r="C265">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D265" t="s">
+        <v>263</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -5038,11 +6938,18 @@
         <v>264</v>
       </c>
       <c r="C266">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D266" t="s">
+        <v>264</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -5050,11 +6957,18 @@
         <v>265</v>
       </c>
       <c r="C267">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D267" t="s">
+        <v>265</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -5062,11 +6976,18 @@
         <v>266</v>
       </c>
       <c r="C268">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D268" t="s">
+        <v>266</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -5074,11 +6995,18 @@
         <v>267</v>
       </c>
       <c r="C269">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D269" t="s">
+        <v>267</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>465</v>
       </c>
@@ -5086,11 +7014,18 @@
         <v>268</v>
       </c>
       <c r="C270">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D270" t="s">
+        <v>268</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -5098,11 +7033,18 @@
         <v>269</v>
       </c>
       <c r="C271">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D271" t="s">
+        <v>269</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>466</v>
       </c>
@@ -5110,11 +7052,18 @@
         <v>270</v>
       </c>
       <c r="C272">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D272" t="s">
+        <v>270</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -5122,11 +7071,18 @@
         <v>271</v>
       </c>
       <c r="C273">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D273" t="s">
+        <v>271</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -5134,11 +7090,18 @@
         <v>272</v>
       </c>
       <c r="C274">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D274" t="s">
+        <v>272</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -5146,11 +7109,18 @@
         <v>273</v>
       </c>
       <c r="C275">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D275" t="s">
+        <v>273</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -5158,11 +7128,18 @@
         <v>274</v>
       </c>
       <c r="C276">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D276" t="s">
+        <v>274</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -5170,11 +7147,18 @@
         <v>275</v>
       </c>
       <c r="C277">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D277" t="s">
+        <v>275</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -5182,11 +7166,18 @@
         <v>276</v>
       </c>
       <c r="C278">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D278" t="s">
+        <v>276</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -5194,11 +7185,18 @@
         <v>277</v>
       </c>
       <c r="C279">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D279" t="s">
+        <v>277</v>
+      </c>
+      <c r="E279">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -5206,11 +7204,18 @@
         <v>278</v>
       </c>
       <c r="C280">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D280" t="s">
+        <v>278</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -5218,11 +7223,18 @@
         <v>279</v>
       </c>
       <c r="C281">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D281" t="s">
+        <v>279</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>467</v>
       </c>
@@ -5230,11 +7242,18 @@
         <v>280</v>
       </c>
       <c r="C282">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D282" t="s">
+        <v>467</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -5242,11 +7261,18 @@
         <v>281</v>
       </c>
       <c r="C283">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D283" t="s">
+        <v>281</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -5254,11 +7280,18 @@
         <v>282</v>
       </c>
       <c r="C284">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D284" t="s">
+        <v>282</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -5266,11 +7299,18 @@
         <v>283</v>
       </c>
       <c r="C285">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D285" t="s">
+        <v>283</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -5278,11 +7318,18 @@
         <v>284</v>
       </c>
       <c r="C286">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D286" t="s">
+        <v>284</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -5290,11 +7337,18 @@
         <v>285</v>
       </c>
       <c r="C287">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D287" t="s">
+        <v>285</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -5302,11 +7356,18 @@
         <v>286</v>
       </c>
       <c r="C288">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D288" t="s">
+        <v>286</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -5314,11 +7375,18 @@
         <v>287</v>
       </c>
       <c r="C289">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D289" t="s">
+        <v>287</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -5326,11 +7394,18 @@
         <v>288</v>
       </c>
       <c r="C290">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D290" t="s">
+        <v>288</v>
+      </c>
+      <c r="E290">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -5338,11 +7413,18 @@
         <v>289</v>
       </c>
       <c r="C291">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D291" t="s">
+        <v>289</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -5350,11 +7432,18 @@
         <v>290</v>
       </c>
       <c r="C292">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D292" t="s">
+        <v>290</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>468</v>
       </c>
@@ -5362,11 +7451,18 @@
         <v>291</v>
       </c>
       <c r="C293">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D293" t="s">
+        <v>291</v>
+      </c>
+      <c r="E293">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -5374,11 +7470,18 @@
         <v>292</v>
       </c>
       <c r="C294">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D294" t="s">
+        <v>292</v>
+      </c>
+      <c r="E294">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -5386,11 +7489,18 @@
         <v>293</v>
       </c>
       <c r="C295">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D295" t="s">
+        <v>293</v>
+      </c>
+      <c r="E295">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -5398,11 +7508,18 @@
         <v>294</v>
       </c>
       <c r="C296">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D296" t="s">
+        <v>294</v>
+      </c>
+      <c r="E296">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -5410,11 +7527,18 @@
         <v>295</v>
       </c>
       <c r="C297">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D297" t="s">
+        <v>295</v>
+      </c>
+      <c r="E297">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -5422,11 +7546,18 @@
         <v>296</v>
       </c>
       <c r="C298">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D298" t="s">
+        <v>296</v>
+      </c>
+      <c r="E298">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>469</v>
       </c>
@@ -5434,11 +7565,18 @@
         <v>297</v>
       </c>
       <c r="C299">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>297</v>
+      </c>
+      <c r="E299">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>470</v>
       </c>
@@ -5446,11 +7584,18 @@
         <v>298</v>
       </c>
       <c r="C300">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>298</v>
+      </c>
+      <c r="E300">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -5458,11 +7603,18 @@
         <v>299</v>
       </c>
       <c r="C301">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D301" t="s">
+        <v>299</v>
+      </c>
+      <c r="E301">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>300</v>
       </c>
@@ -5470,11 +7622,18 @@
         <v>300</v>
       </c>
       <c r="C302">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D302" t="s">
+        <v>300</v>
+      </c>
+      <c r="E302">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>471</v>
       </c>
@@ -5482,11 +7641,18 @@
         <v>301</v>
       </c>
       <c r="C303">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D303" t="s">
+        <v>301</v>
+      </c>
+      <c r="E303">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>302</v>
       </c>
@@ -5494,11 +7660,18 @@
         <v>302</v>
       </c>
       <c r="C304">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D304" t="s">
+        <v>302</v>
+      </c>
+      <c r="E304">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
         <v>303</v>
       </c>
@@ -5506,11 +7679,18 @@
         <v>303</v>
       </c>
       <c r="C305">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D305" t="s">
+        <v>303</v>
+      </c>
+      <c r="E305">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>304</v>
       </c>
@@ -5518,11 +7698,18 @@
         <v>304</v>
       </c>
       <c r="C306">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D306" t="s">
+        <v>304</v>
+      </c>
+      <c r="E306">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" t="s">
         <v>305</v>
       </c>
@@ -5530,11 +7717,18 @@
         <v>305</v>
       </c>
       <c r="C307">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D307" t="s">
+        <v>305</v>
+      </c>
+      <c r="E307">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" t="s">
         <v>306</v>
       </c>
@@ -5542,11 +7736,18 @@
         <v>306</v>
       </c>
       <c r="C308">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D308" t="s">
+        <v>306</v>
+      </c>
+      <c r="E308">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>307</v>
       </c>
@@ -5554,11 +7755,18 @@
         <v>307</v>
       </c>
       <c r="C309">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D309" t="s">
+        <v>307</v>
+      </c>
+      <c r="E309">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
       <c r="A310" t="s">
         <v>308</v>
       </c>
@@ -5566,11 +7774,18 @@
         <v>308</v>
       </c>
       <c r="C310">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D310" t="s">
+        <v>308</v>
+      </c>
+      <c r="E310">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
         <v>472</v>
       </c>
@@ -5578,11 +7793,18 @@
         <v>309</v>
       </c>
       <c r="C311">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
+        <v>472</v>
+      </c>
+      <c r="E311">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
       <c r="A312" t="s">
         <v>310</v>
       </c>
@@ -5590,11 +7812,18 @@
         <v>310</v>
       </c>
       <c r="C312">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D312" t="s">
+        <v>310</v>
+      </c>
+      <c r="E312">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
       <c r="A313" t="s">
         <v>311</v>
       </c>
@@ -5602,11 +7831,18 @@
         <v>311</v>
       </c>
       <c r="C313">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D313" t="s">
+        <v>311</v>
+      </c>
+      <c r="E313">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>312</v>
       </c>
@@ -5614,11 +7850,18 @@
         <v>312</v>
       </c>
       <c r="C314">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D314" t="s">
+        <v>312</v>
+      </c>
+      <c r="E314">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>473</v>
       </c>
@@ -5626,11 +7869,18 @@
         <v>313</v>
       </c>
       <c r="C315">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D315" t="s">
+        <v>313</v>
+      </c>
+      <c r="E315">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>314</v>
       </c>
@@ -5638,11 +7888,18 @@
         <v>314</v>
       </c>
       <c r="C316">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D316" t="s">
+        <v>314</v>
+      </c>
+      <c r="E316">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
       <c r="A317" t="s">
         <v>315</v>
       </c>
@@ -5650,11 +7907,18 @@
         <v>315</v>
       </c>
       <c r="C317">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D317" t="s">
+        <v>315</v>
+      </c>
+      <c r="E317">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>316</v>
       </c>
@@ -5662,11 +7926,18 @@
         <v>316</v>
       </c>
       <c r="C318">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D318" t="s">
+        <v>316</v>
+      </c>
+      <c r="E318">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>317</v>
       </c>
@@ -5674,11 +7945,18 @@
         <v>317</v>
       </c>
       <c r="C319">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D319" t="s">
+        <v>317</v>
+      </c>
+      <c r="E319">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>318</v>
       </c>
@@ -5686,11 +7964,18 @@
         <v>318</v>
       </c>
       <c r="C320">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D320" t="s">
+        <v>318</v>
+      </c>
+      <c r="E320">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
       <c r="A321" t="s">
         <v>319</v>
       </c>
@@ -5698,11 +7983,18 @@
         <v>319</v>
       </c>
       <c r="C321">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D321" t="s">
+        <v>319</v>
+      </c>
+      <c r="E321">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>320</v>
       </c>
@@ -5710,11 +8002,18 @@
         <v>320</v>
       </c>
       <c r="C322">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D322" t="s">
+        <v>320</v>
+      </c>
+      <c r="E322">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
       <c r="A323" t="s">
         <v>321</v>
       </c>
@@ -5722,11 +8021,18 @@
         <v>321</v>
       </c>
       <c r="C323">
-        <f t="shared" ref="C323:C386" si="5">IF(A323=B323,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
+        <f t="shared" ref="C323:C386" si="10">IF(A323=B323,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D323" t="s">
+        <v>321</v>
+      </c>
+      <c r="E323">
+        <f t="shared" ref="E323:E386" si="11">IF(A323=D323,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
         <v>322</v>
       </c>
@@ -5734,11 +8040,18 @@
         <v>322</v>
       </c>
       <c r="C324">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D324" t="s">
+        <v>322</v>
+      </c>
+      <c r="E324">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
         <v>474</v>
       </c>
@@ -5746,11 +8059,18 @@
         <v>323</v>
       </c>
       <c r="C325">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D325" t="s">
+        <v>323</v>
+      </c>
+      <c r="E325">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
         <v>324</v>
       </c>
@@ -5758,11 +8078,18 @@
         <v>324</v>
       </c>
       <c r="C326">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D326" t="s">
+        <v>324</v>
+      </c>
+      <c r="E326">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
       <c r="A327" t="s">
         <v>325</v>
       </c>
@@ -5770,11 +8097,18 @@
         <v>325</v>
       </c>
       <c r="C327">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D327" t="s">
+        <v>325</v>
+      </c>
+      <c r="E327">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
       <c r="A328" t="s">
         <v>326</v>
       </c>
@@ -5782,11 +8116,18 @@
         <v>326</v>
       </c>
       <c r="C328">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D328" t="s">
+        <v>326</v>
+      </c>
+      <c r="E328">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
         <v>475</v>
       </c>
@@ -5794,11 +8135,18 @@
         <v>327</v>
       </c>
       <c r="C329">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D329" t="s">
+        <v>327</v>
+      </c>
+      <c r="E329">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
       <c r="A330" t="s">
         <v>328</v>
       </c>
@@ -5806,11 +8154,18 @@
         <v>328</v>
       </c>
       <c r="C330">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D330" t="s">
+        <v>328</v>
+      </c>
+      <c r="E330">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
       <c r="A331" t="s">
         <v>329</v>
       </c>
@@ -5818,11 +8173,18 @@
         <v>329</v>
       </c>
       <c r="C331">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D331" t="s">
+        <v>329</v>
+      </c>
+      <c r="E331">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
       <c r="A332" t="s">
         <v>330</v>
       </c>
@@ -5830,11 +8192,18 @@
         <v>330</v>
       </c>
       <c r="C332">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D332" t="s">
+        <v>330</v>
+      </c>
+      <c r="E332">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
       <c r="A333" t="s">
         <v>331</v>
       </c>
@@ -5842,11 +8211,18 @@
         <v>331</v>
       </c>
       <c r="C333">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D333" t="s">
+        <v>331</v>
+      </c>
+      <c r="E333">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
       <c r="A334" t="s">
         <v>332</v>
       </c>
@@ -5854,11 +8230,18 @@
         <v>332</v>
       </c>
       <c r="C334">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D334" t="s">
+        <v>332</v>
+      </c>
+      <c r="E334">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
       <c r="A335" t="s">
         <v>333</v>
       </c>
@@ -5866,11 +8249,18 @@
         <v>333</v>
       </c>
       <c r="C335">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D335" t="s">
+        <v>333</v>
+      </c>
+      <c r="E335">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
       <c r="A336" t="s">
         <v>334</v>
       </c>
@@ -5878,11 +8268,18 @@
         <v>334</v>
       </c>
       <c r="C336">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D336" t="s">
+        <v>334</v>
+      </c>
+      <c r="E336">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" t="s">
         <v>476</v>
       </c>
@@ -5890,11 +8287,18 @@
         <v>335</v>
       </c>
       <c r="C337">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
+        <v>335</v>
+      </c>
+      <c r="E337">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" t="s">
         <v>336</v>
       </c>
@@ -5902,11 +8306,18 @@
         <v>336</v>
       </c>
       <c r="C338">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D338" t="s">
+        <v>336</v>
+      </c>
+      <c r="E338">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
       <c r="A339" t="s">
         <v>337</v>
       </c>
@@ -5914,11 +8325,18 @@
         <v>337</v>
       </c>
       <c r="C339">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D339" t="s">
+        <v>337</v>
+      </c>
+      <c r="E339">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
       <c r="A340" t="s">
         <v>338</v>
       </c>
@@ -5926,11 +8344,18 @@
         <v>338</v>
       </c>
       <c r="C340">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D340" t="s">
+        <v>338</v>
+      </c>
+      <c r="E340">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341" t="s">
         <v>339</v>
       </c>
@@ -5938,11 +8363,18 @@
         <v>339</v>
       </c>
       <c r="C341">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D341" t="s">
+        <v>339</v>
+      </c>
+      <c r="E341">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" t="s">
         <v>340</v>
       </c>
@@ -5950,11 +8382,18 @@
         <v>340</v>
       </c>
       <c r="C342">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D342" t="s">
+        <v>340</v>
+      </c>
+      <c r="E342">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" t="s">
         <v>341</v>
       </c>
@@ -5962,11 +8401,18 @@
         <v>341</v>
       </c>
       <c r="C343">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D343" t="s">
+        <v>341</v>
+      </c>
+      <c r="E343">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" t="s">
         <v>342</v>
       </c>
@@ -5974,11 +8420,18 @@
         <v>342</v>
       </c>
       <c r="C344">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D344" t="s">
+        <v>342</v>
+      </c>
+      <c r="E344">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345" t="s">
         <v>343</v>
       </c>
@@ -5986,11 +8439,18 @@
         <v>343</v>
       </c>
       <c r="C345">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D345" t="s">
+        <v>343</v>
+      </c>
+      <c r="E345">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
       <c r="A346" t="s">
         <v>344</v>
       </c>
@@ -5998,11 +8458,18 @@
         <v>344</v>
       </c>
       <c r="C346">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D346" t="s">
+        <v>344</v>
+      </c>
+      <c r="E346">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
       <c r="A347" t="s">
         <v>345</v>
       </c>
@@ -6010,11 +8477,18 @@
         <v>345</v>
       </c>
       <c r="C347">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D347" t="s">
+        <v>345</v>
+      </c>
+      <c r="E347">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348" t="s">
         <v>346</v>
       </c>
@@ -6022,11 +8496,18 @@
         <v>346</v>
       </c>
       <c r="C348">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D348" t="s">
+        <v>346</v>
+      </c>
+      <c r="E348">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
       <c r="A349" t="s">
         <v>477</v>
       </c>
@@ -6034,11 +8515,18 @@
         <v>347</v>
       </c>
       <c r="C349">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D349" t="s">
+        <v>347</v>
+      </c>
+      <c r="E349">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
       <c r="A350" t="s">
         <v>348</v>
       </c>
@@ -6046,11 +8534,18 @@
         <v>348</v>
       </c>
       <c r="C350">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D350" t="s">
+        <v>348</v>
+      </c>
+      <c r="E350">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
       <c r="A351" t="s">
         <v>349</v>
       </c>
@@ -6058,11 +8553,18 @@
         <v>349</v>
       </c>
       <c r="C351">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D351" t="s">
+        <v>349</v>
+      </c>
+      <c r="E351">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
       <c r="A352" t="s">
         <v>350</v>
       </c>
@@ -6070,11 +8572,18 @@
         <v>350</v>
       </c>
       <c r="C352">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D352" t="s">
+        <v>350</v>
+      </c>
+      <c r="E352">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
       <c r="A353" t="s">
         <v>351</v>
       </c>
@@ -6082,11 +8591,18 @@
         <v>351</v>
       </c>
       <c r="C353">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D353" t="s">
+        <v>351</v>
+      </c>
+      <c r="E353">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
       <c r="A354" t="s">
         <v>352</v>
       </c>
@@ -6094,11 +8610,18 @@
         <v>352</v>
       </c>
       <c r="C354">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D354" t="s">
+        <v>352</v>
+      </c>
+      <c r="E354">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
       <c r="A355" t="s">
         <v>353</v>
       </c>
@@ -6106,11 +8629,18 @@
         <v>353</v>
       </c>
       <c r="C355">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D355" t="s">
+        <v>353</v>
+      </c>
+      <c r="E355">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
       <c r="A356" t="s">
         <v>478</v>
       </c>
@@ -6118,11 +8648,18 @@
         <v>354</v>
       </c>
       <c r="C356">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D356" t="s">
+        <v>354</v>
+      </c>
+      <c r="E356">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
       <c r="A357" t="s">
         <v>355</v>
       </c>
@@ -6130,11 +8667,18 @@
         <v>355</v>
       </c>
       <c r="C357">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D357" t="s">
+        <v>355</v>
+      </c>
+      <c r="E357">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
       <c r="A358" t="s">
         <v>356</v>
       </c>
@@ -6142,11 +8686,18 @@
         <v>356</v>
       </c>
       <c r="C358">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D358" t="s">
+        <v>356</v>
+      </c>
+      <c r="E358">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
       <c r="A359" t="s">
         <v>357</v>
       </c>
@@ -6154,11 +8705,18 @@
         <v>357</v>
       </c>
       <c r="C359">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D359" t="s">
+        <v>357</v>
+      </c>
+      <c r="E359">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
       <c r="A360" t="s">
         <v>358</v>
       </c>
@@ -6166,11 +8724,18 @@
         <v>358</v>
       </c>
       <c r="C360">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D360" t="s">
+        <v>358</v>
+      </c>
+      <c r="E360">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
       <c r="A361" t="s">
         <v>359</v>
       </c>
@@ -6178,11 +8743,18 @@
         <v>359</v>
       </c>
       <c r="C361">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D361" t="s">
+        <v>495</v>
+      </c>
+      <c r="E361">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
       <c r="A362" t="s">
         <v>360</v>
       </c>
@@ -6190,11 +8762,18 @@
         <v>360</v>
       </c>
       <c r="C362">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D362" t="s">
+        <v>360</v>
+      </c>
+      <c r="E362">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
       <c r="A363" t="s">
         <v>361</v>
       </c>
@@ -6202,11 +8781,18 @@
         <v>361</v>
       </c>
       <c r="C363">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D363" t="s">
+        <v>361</v>
+      </c>
+      <c r="E363">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
       <c r="A364" t="s">
         <v>362</v>
       </c>
@@ -6214,11 +8800,18 @@
         <v>362</v>
       </c>
       <c r="C364">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D364" t="s">
+        <v>362</v>
+      </c>
+      <c r="E364">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
       <c r="A365" t="s">
         <v>363</v>
       </c>
@@ -6226,11 +8819,18 @@
         <v>363</v>
       </c>
       <c r="C365">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D365" t="s">
+        <v>363</v>
+      </c>
+      <c r="E365">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
       <c r="A366" t="s">
         <v>364</v>
       </c>
@@ -6238,11 +8838,18 @@
         <v>364</v>
       </c>
       <c r="C366">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D366" t="s">
+        <v>364</v>
+      </c>
+      <c r="E366">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
       <c r="A367" t="s">
         <v>479</v>
       </c>
@@ -6250,11 +8857,18 @@
         <v>365</v>
       </c>
       <c r="C367">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D367" t="s">
+        <v>365</v>
+      </c>
+      <c r="E367">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
       <c r="A368" t="s">
         <v>480</v>
       </c>
@@ -6262,11 +8876,18 @@
         <v>366</v>
       </c>
       <c r="C368">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>366</v>
+      </c>
+      <c r="E368">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
       <c r="A369" t="s">
         <v>481</v>
       </c>
@@ -6274,11 +8895,18 @@
         <v>367</v>
       </c>
       <c r="C369">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
+        <v>481</v>
+      </c>
+      <c r="E369">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
       <c r="A370" t="s">
         <v>368</v>
       </c>
@@ -6286,11 +8914,18 @@
         <v>368</v>
       </c>
       <c r="C370">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D370" t="s">
+        <v>368</v>
+      </c>
+      <c r="E370">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
       <c r="A371" t="s">
         <v>369</v>
       </c>
@@ -6298,11 +8933,18 @@
         <v>369</v>
       </c>
       <c r="C371">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D371" t="s">
+        <v>369</v>
+      </c>
+      <c r="E371">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
       <c r="A372" t="s">
         <v>370</v>
       </c>
@@ -6310,11 +8952,18 @@
         <v>370</v>
       </c>
       <c r="C372">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D372" t="s">
+        <v>370</v>
+      </c>
+      <c r="E372">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
       <c r="A373" t="s">
         <v>371</v>
       </c>
@@ -6322,11 +8971,18 @@
         <v>371</v>
       </c>
       <c r="C373">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D373" t="s">
+        <v>371</v>
+      </c>
+      <c r="E373">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
       <c r="A374" t="s">
         <v>482</v>
       </c>
@@ -6334,11 +8990,18 @@
         <v>372</v>
       </c>
       <c r="C374">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D374" t="s">
+        <v>372</v>
+      </c>
+      <c r="E374">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
       <c r="A375" t="s">
         <v>373</v>
       </c>
@@ -6346,11 +9009,18 @@
         <v>373</v>
       </c>
       <c r="C375">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D375" t="s">
+        <v>373</v>
+      </c>
+      <c r="E375">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
       <c r="A376" t="s">
         <v>374</v>
       </c>
@@ -6358,11 +9028,18 @@
         <v>374</v>
       </c>
       <c r="C376">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D376" t="s">
+        <v>374</v>
+      </c>
+      <c r="E376">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
       <c r="A377" t="s">
         <v>375</v>
       </c>
@@ -6370,11 +9047,18 @@
         <v>375</v>
       </c>
       <c r="C377">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D377" t="s">
+        <v>375</v>
+      </c>
+      <c r="E377">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
       <c r="A378" t="s">
         <v>483</v>
       </c>
@@ -6382,11 +9066,18 @@
         <v>376</v>
       </c>
       <c r="C378">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D378" t="s">
+        <v>483</v>
+      </c>
+      <c r="E378">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
       <c r="A379" t="s">
         <v>377</v>
       </c>
@@ -6394,11 +9085,18 @@
         <v>377</v>
       </c>
       <c r="C379">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D379" t="s">
+        <v>377</v>
+      </c>
+      <c r="E379">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
       <c r="A380" t="s">
         <v>378</v>
       </c>
@@ -6406,11 +9104,18 @@
         <v>378</v>
       </c>
       <c r="C380">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D380" t="s">
+        <v>378</v>
+      </c>
+      <c r="E380">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
       <c r="A381" t="s">
         <v>379</v>
       </c>
@@ -6418,11 +9123,18 @@
         <v>379</v>
       </c>
       <c r="C381">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D381" t="s">
+        <v>379</v>
+      </c>
+      <c r="E381">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
       <c r="A382" t="s">
         <v>380</v>
       </c>
@@ -6430,11 +9142,18 @@
         <v>380</v>
       </c>
       <c r="C382">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D382" t="s">
+        <v>380</v>
+      </c>
+      <c r="E382">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
       <c r="A383" t="s">
         <v>381</v>
       </c>
@@ -6442,11 +9161,18 @@
         <v>381</v>
       </c>
       <c r="C383">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D383" t="s">
+        <v>381</v>
+      </c>
+      <c r="E383">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
       <c r="A384" t="s">
         <v>382</v>
       </c>
@@ -6454,11 +9180,18 @@
         <v>382</v>
       </c>
       <c r="C384">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D384" t="s">
+        <v>382</v>
+      </c>
+      <c r="E384">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
       <c r="A385" t="s">
         <v>484</v>
       </c>
@@ -6466,11 +9199,18 @@
         <v>383</v>
       </c>
       <c r="C385">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D385" t="s">
+        <v>484</v>
+      </c>
+      <c r="E385">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
       <c r="A386" t="s">
         <v>485</v>
       </c>
@@ -6478,11 +9218,18 @@
         <v>384</v>
       </c>
       <c r="C386">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>384</v>
+      </c>
+      <c r="E386">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
       <c r="A387" t="s">
         <v>385</v>
       </c>
@@ -6490,11 +9237,18 @@
         <v>385</v>
       </c>
       <c r="C387">
-        <f t="shared" ref="C387:C419" si="6">IF(A387=B387,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
+        <f t="shared" ref="C387:C419" si="12">IF(A387=B387,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D387" t="s">
+        <v>385</v>
+      </c>
+      <c r="E387">
+        <f t="shared" ref="E387:E419" si="13">IF(A387=D387,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
       <c r="A388" t="s">
         <v>386</v>
       </c>
@@ -6502,11 +9256,18 @@
         <v>386</v>
       </c>
       <c r="C388">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D388" t="s">
+        <v>386</v>
+      </c>
+      <c r="E388">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
       <c r="A389" t="s">
         <v>387</v>
       </c>
@@ -6514,11 +9275,18 @@
         <v>387</v>
       </c>
       <c r="C389">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D389" t="s">
+        <v>387</v>
+      </c>
+      <c r="E389">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
       <c r="A390" t="s">
         <v>388</v>
       </c>
@@ -6526,11 +9294,18 @@
         <v>388</v>
       </c>
       <c r="C390">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D390" t="s">
+        <v>388</v>
+      </c>
+      <c r="E390">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
       <c r="A391" t="s">
         <v>486</v>
       </c>
@@ -6538,11 +9313,18 @@
         <v>389</v>
       </c>
       <c r="C391">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D391" t="s">
+        <v>389</v>
+      </c>
+      <c r="E391">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
       <c r="A392" t="s">
         <v>390</v>
       </c>
@@ -6550,11 +9332,18 @@
         <v>390</v>
       </c>
       <c r="C392">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D392" t="s">
+        <v>390</v>
+      </c>
+      <c r="E392">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
       <c r="A393" t="s">
         <v>391</v>
       </c>
@@ -6562,11 +9351,18 @@
         <v>391</v>
       </c>
       <c r="C393">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D393" t="s">
+        <v>391</v>
+      </c>
+      <c r="E393">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
       <c r="A394" t="s">
         <v>392</v>
       </c>
@@ -6574,11 +9370,18 @@
         <v>392</v>
       </c>
       <c r="C394">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D394" t="s">
+        <v>392</v>
+      </c>
+      <c r="E394">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
       <c r="A395" t="s">
         <v>393</v>
       </c>
@@ -6586,11 +9389,18 @@
         <v>393</v>
       </c>
       <c r="C395">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D395" t="s">
+        <v>393</v>
+      </c>
+      <c r="E395">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
       <c r="A396" t="s">
         <v>394</v>
       </c>
@@ -6598,11 +9408,18 @@
         <v>394</v>
       </c>
       <c r="C396">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D396" t="s">
+        <v>394</v>
+      </c>
+      <c r="E396">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
       <c r="A397" t="s">
         <v>395</v>
       </c>
@@ -6610,11 +9427,18 @@
         <v>395</v>
       </c>
       <c r="C397">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D397" t="s">
+        <v>395</v>
+      </c>
+      <c r="E397">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
       <c r="A398" t="s">
         <v>396</v>
       </c>
@@ -6622,11 +9446,18 @@
         <v>396</v>
       </c>
       <c r="C398">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D398" t="s">
+        <v>396</v>
+      </c>
+      <c r="E398">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
       <c r="A399" t="s">
         <v>397</v>
       </c>
@@ -6634,11 +9465,18 @@
         <v>397</v>
       </c>
       <c r="C399">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D399" t="s">
+        <v>397</v>
+      </c>
+      <c r="E399">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
       <c r="A400" t="s">
         <v>398</v>
       </c>
@@ -6646,11 +9484,18 @@
         <v>398</v>
       </c>
       <c r="C400">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D400" t="s">
+        <v>398</v>
+      </c>
+      <c r="E400">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
       <c r="A401" t="s">
         <v>399</v>
       </c>
@@ -6658,11 +9503,18 @@
         <v>399</v>
       </c>
       <c r="C401">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D401" t="s">
+        <v>399</v>
+      </c>
+      <c r="E401">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
       <c r="A402" t="s">
         <v>400</v>
       </c>
@@ -6670,11 +9522,18 @@
         <v>400</v>
       </c>
       <c r="C402">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D402" t="s">
+        <v>400</v>
+      </c>
+      <c r="E402">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
       <c r="A403" t="s">
         <v>401</v>
       </c>
@@ -6682,11 +9541,18 @@
         <v>401</v>
       </c>
       <c r="C403">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D403" t="s">
+        <v>401</v>
+      </c>
+      <c r="E403">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
       <c r="A404" t="s">
         <v>402</v>
       </c>
@@ -6694,11 +9560,18 @@
         <v>402</v>
       </c>
       <c r="C404">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D404" t="s">
+        <v>402</v>
+      </c>
+      <c r="E404">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
       <c r="A405" t="s">
         <v>487</v>
       </c>
@@ -6706,11 +9579,18 @@
         <v>403</v>
       </c>
       <c r="C405">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D405" t="s">
+        <v>403</v>
+      </c>
+      <c r="E405">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
       <c r="A406" t="s">
         <v>404</v>
       </c>
@@ -6718,11 +9598,18 @@
         <v>404</v>
       </c>
       <c r="C406">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D406" t="s">
+        <v>404</v>
+      </c>
+      <c r="E406">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
       <c r="A407" t="s">
         <v>405</v>
       </c>
@@ -6730,11 +9617,18 @@
         <v>405</v>
       </c>
       <c r="C407">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D407" t="s">
+        <v>405</v>
+      </c>
+      <c r="E407">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
       <c r="A408" t="s">
         <v>406</v>
       </c>
@@ -6742,11 +9636,18 @@
         <v>406</v>
       </c>
       <c r="C408">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D408" t="s">
+        <v>406</v>
+      </c>
+      <c r="E408">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
       <c r="A409" t="s">
         <v>407</v>
       </c>
@@ -6754,11 +9655,18 @@
         <v>407</v>
       </c>
       <c r="C409">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D409" t="s">
+        <v>407</v>
+      </c>
+      <c r="E409">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
       <c r="A410" t="s">
         <v>408</v>
       </c>
@@ -6766,11 +9674,18 @@
         <v>408</v>
       </c>
       <c r="C410">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D410" t="s">
+        <v>408</v>
+      </c>
+      <c r="E410">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
       <c r="A411" t="s">
         <v>409</v>
       </c>
@@ -6778,11 +9693,18 @@
         <v>409</v>
       </c>
       <c r="C411">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D411" t="s">
+        <v>409</v>
+      </c>
+      <c r="E411">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
       <c r="A412" t="s">
         <v>410</v>
       </c>
@@ -6790,11 +9712,18 @@
         <v>410</v>
       </c>
       <c r="C412">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D412" t="s">
+        <v>410</v>
+      </c>
+      <c r="E412">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
       <c r="A413" t="s">
         <v>411</v>
       </c>
@@ -6802,11 +9731,18 @@
         <v>411</v>
       </c>
       <c r="C413">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D413" t="s">
+        <v>411</v>
+      </c>
+      <c r="E413">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
       <c r="A414" t="s">
         <v>412</v>
       </c>
@@ -6814,11 +9750,18 @@
         <v>412</v>
       </c>
       <c r="C414">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D414" t="s">
+        <v>496</v>
+      </c>
+      <c r="E414">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
       <c r="A415" t="s">
         <v>413</v>
       </c>
@@ -6826,11 +9769,18 @@
         <v>413</v>
       </c>
       <c r="C415">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D415" t="s">
+        <v>413</v>
+      </c>
+      <c r="E415">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
       <c r="A416" t="s">
         <v>414</v>
       </c>
@@ -6838,11 +9788,18 @@
         <v>414</v>
       </c>
       <c r="C416">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D416" t="s">
+        <v>414</v>
+      </c>
+      <c r="E416">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
       <c r="A417" t="s">
         <v>415</v>
       </c>
@@ -6850,11 +9807,18 @@
         <v>415</v>
       </c>
       <c r="C417">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D417" t="s">
+        <v>415</v>
+      </c>
+      <c r="E417">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
       <c r="A418" t="s">
         <v>416</v>
       </c>
@@ -6862,11 +9826,18 @@
         <v>416</v>
       </c>
       <c r="C418">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D418" t="s">
+        <v>416</v>
+      </c>
+      <c r="E418">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
       <c r="A419" t="s">
         <v>488</v>
       </c>
@@ -6874,18 +9845,30 @@
         <v>417</v>
       </c>
       <c r="C419">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D419" t="s">
+        <v>417</v>
+      </c>
+      <c r="E419">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
       <c r="C420">
         <f>SUM(C2:C419)</f>
         <v>71</v>
       </c>
+      <c r="E420">
+        <f>SUM(E2:E419)</f>
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
